--- a/data/136/BOI/Claims on non-euro area residents denominated in foreign currency_historical.xlsx
+++ b/data/136/BOI/Claims on non-euro area residents denominated in foreign currency_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AAR2"/>
+  <dimension ref="A1:AAU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3962,6 +3962,21 @@
           <t>2021-11</t>
         </is>
       </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6125,6 +6140,15 @@
       </c>
       <c r="AAR2" t="n">
         <v>73745.7</v>
+      </c>
+      <c r="AAS2" t="n">
+        <v>74171.7</v>
+      </c>
+      <c r="AAT2" t="n">
+        <v>74786.89999999999</v>
+      </c>
+      <c r="AAU2" t="n">
+        <v>74580.5</v>
       </c>
     </row>
   </sheetData>
